--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ECAF6B-FFA2-46EB-B3F8-DE8585C47BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11ABAD2-755D-4B80-AD8F-9FD5C6F82E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>实习日志</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>后续需要完成考务管理、成绩管理、教学评价、教材操作、毕业论文设计管理、毕业审批等操作的培训</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加了由姜晓丽老师、张伟老师和蔡建华老师主讲的教务管理系统操作培训，内容涵盖了考务管理、成绩管理、教学评价、教材管理、毕业设计论文管理、毕业审核以及系统日常运维注意事项。
+姜晓丽老师详细讲解了考务管理的操作流程，包括期末考试和补考的安排、监考人员的调度和考场设置。成绩管理部分，我们学习了如何进行成绩录入、补录和修改，处理成绩加分、校外学分认定、成绩作废以及学籍预警统计。教学评价管理方面，姜老师介绍了教师端和学生端的教学评价流程、如何实施问卷调查以及教学信息员的操作说明。教材管理培训中，她还详细说明了教材选用和分发的操作步骤。
+接着，张伟老师主讲了毕业设计论文管理和毕业审核的操作培训。毕业设计管理涉及课题申报、课题修改、查重结果对接等内容，确保学生的论文符合学校要求。毕业审核培训中，张老师详细讲解了毕业学位审核的操作流程，帮助我们了解如何准确、高效地进行毕业生的资格审核。
+最后，蔡建华老师讲解了教务系统的日常运维注意事项。她强调了系统运行与维护、数据管理与操作的重要性，并详细介绍了用户管理与支持、沟通与协调的流程。同时，她还讲解了政策流程制定、网络安全与合规的重要性，以及操作日志与审计的具体操作方法。蔡老师特别指出了教务系统中的一些关键设置，帮助我们更好地维护系统的正常运行。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本项内容基本完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续需要完成0BE教学管理、教学建设、顶岗实习以及教学业绩考核的操作培训</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -282,16 +297,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,14 +814,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -832,16 +847,16 @@
       <c r="A3" s="2">
         <v>45470</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
@@ -850,16 +865,16 @@
       <c r="A4" s="2">
         <v>45471</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4"/>
@@ -868,16 +883,16 @@
       <c r="A5" s="2">
         <v>45474</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4"/>
@@ -886,16 +901,16 @@
       <c r="A6" s="2">
         <v>45475</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="4"/>
@@ -904,16 +919,16 @@
       <c r="A7" s="2">
         <v>45476</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="4"/>
@@ -922,16 +937,16 @@
       <c r="A8" s="2">
         <v>45477</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="4"/>
@@ -940,16 +955,16 @@
       <c r="A9" s="2">
         <v>45478</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="4"/>
@@ -958,16 +973,16 @@
       <c r="A10" s="2">
         <v>45481</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="4"/>
@@ -976,16 +991,16 @@
       <c r="A11" s="2">
         <v>45482</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="4"/>
@@ -994,16 +1009,16 @@
       <c r="A12" s="2">
         <v>45483</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="4"/>
@@ -1012,16 +1027,16 @@
       <c r="A13" s="2">
         <v>45484</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="4"/>
@@ -1030,16 +1045,16 @@
       <c r="A14" s="2">
         <v>45485</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="4"/>
@@ -1048,42 +1063,52 @@
       <c r="A15" s="2">
         <v>45488</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>45489</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+    <row r="17" spans="1:6" ht="378" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">

--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11ABAD2-755D-4B80-AD8F-9FD5C6F82E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93EE55B-AD15-479F-997C-1FAD2E194099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>实习日志</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>后续需要完成0BE教学管理、教学建设、顶岗实习以及教学业绩考核的操作培训</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天学习了教学建设管理系统的功能模块，深入了解了系统管理、基础管理和成果管理三个主要部分。系统管理模块包括目录管理、角色管理和用户管理等功能，这些功能用于维护系统的基本架构和权限配置。此外，还学习了机构信息维护、通知管理和教室数据归属信息管理的操作方法，确保系统用户能够有效地管理机构和教室信息。登录页设置、流程配置和流程消息功能则为系统提供了自定义登录界面和灵活的流程管理功能，而审批基础数据信息和教室数据授权功能则用于管理审批流程和数据访问权限。
+在基础管理模块中，重点学习了基础数据维护、教师信息维护和专家信息维护等功能。这些功能用于确保系统中所有基础数据的准确性和及时更新。此外，还学习了项目分类维护、项目类别维护和项目级别维护功能，确保项目管理的规范性和层次性。学科门类维护、一级学科维护和二级学科维护功能用于维护学科信息，专家组信息维护和项目预算功能则用于管理专家组和项目资金分配。
+成果管理模块则重点学习了成果模板、教学成果查询和教学成果申请时间控制等功能。这些功能用于管理和查询教学成果，并控制教学成果申请的时间。标准设置管理功能则主要针对六大获奖标准进行设置，包括教学成果获奖、质量工程获奖、指导大学生创新创业项目获奖、教材讲义获奖、教师竞赛获奖和指导大学生参赛获奖。项目成果功能则用于查看、审核和维护六大获奖类型的项目成果，并且这些项目的审核过程可以在“流程配置”中进行维护。
+通过这次学习，我对教学建设管理系统的各个模块和功能有了全面的了解，并掌握了各项功能的操作方法。这将有助于我们在实际工作中更高效地使用系统，提高教学管理的水平和质量。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了教学建设管理系统中系统管理、基础管理和成果管理，后续需要完成教学建设管理系统中剩余模块的学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对教学建设管理系统中剩余模块的学习</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -800,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1111,12 +1126,22 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">

--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93EE55B-AD15-479F-997C-1FAD2E194099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668A4D9-C19E-4915-874A-CE0BC39F9623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>实习日志</t>
   </si>
@@ -215,6 +215,21 @@
   </si>
   <si>
     <t>针对教学建设管理系统中剩余模块的学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天参加了关于OBE教学管理和教学建设的培训，主讲人是张子震老师。在OBE模块中，我们重点学习了如何设置毕业要求、维护课程大纲，以及如何进行考务管理，包括考试命题、成绩录入设置和课程达成度分析。
+在教学建设部分，张老师介绍了教改教研项目的管理流程，讲解了不同角色（管理员、教师、专家）的权限设置和操作流程。特别是项目申报和专家评审环节，张老师分别介绍了校内和校外专家评审的具体操作方法，强调了规范化管理的重要性。
+下午的培训由程创老师主持，内容涉及顶岗实习管理系统和业绩考核系统的操作。顶岗实习管理系统部分，主要讲解了如何导入实习名单、填写和管理实习过程资料（包括实习日报、周报和月报等），以及制定和跟踪实习计划。通过实操演示，我们更直观地了解了系统的各项功能。
+在业绩考核系统的操作培训中详细介绍了考核等级和考核方案的维护方法，以及如何设置和管理考核指标。考核指标涵盖了教学工作量、教学效果、教改教研、教学事故统计等多个方面。同时，还演示了教材管理和教师业绩统计的操作流程，帮助我们更好地理解如何通过系统进行全面的教师工作考核。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要学习了业绩考核系统的主要内容，了解了如何系统化地评估和考核教师的教学工作量、教学效果、教学建设和改革业绩以及教学工作业绩。
+首先是教学工作量的考核。我学到需要维护工作量教师的一些基础信息，包括教师类型、参数以及基本信息的维护。此外，还要设置教师职称对应的最低学时标准。系统会根据教师的授课信息同步教师课堂授课学时，然后生成教师学时记录，并与设置的最低学时进行对比，生成未达到最低学时的教师名单。
+关于教学效果的考核，我了解到要先检查是否有教师需要进行教学单位调整。如果不需要调整，则可以计算课堂教学效果。首先，同步本学期的课程信息，得到课程列表，并为每门课程设置学生评价分、教学单位评价分和课程教学效果终结性评价分数，然后计算课程小类排名。对于实践教学课程，需要设置实践教学效果评价等级，并计算T3分数。最终，计算学年考核名单中教师的评价等级，并生成免评名单。
+在教学建设和改革业绩方面，我学会了如何进行基础信息的设置和维护，包括负责人分值占比上限和分值/总分录入时间的设置。接着，同步或增加教学建设和改革业绩项目，录入项目业绩总分，并为项目成员分配分值。最后，根据项目业绩总分和项目分配分值计算出参与项目成员的业绩计分和等级。
+对于教学工作业绩的统计，我了解了需要先进行一些基本信息的维护，包括综合评价等级、教学事故类型、行政处分类型以及事故/处分信息的维护，同时设置业绩确认时间。然后，导入参与考核的教师名单信息，最终进行教师工作业绩的统计。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -813,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,47 +1141,69 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>45491</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>45492</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>45495</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>45496</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668A4D9-C19E-4915-874A-CE0BC39F9623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77140586-F3FE-4422-8AD1-1E6E7F73C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>实习日志</t>
   </si>
@@ -230,6 +230,16 @@
 关于教学效果的考核，我了解到要先检查是否有教师需要进行教学单位调整。如果不需要调整，则可以计算课堂教学效果。首先，同步本学期的课程信息，得到课程列表，并为每门课程设置学生评价分、教学单位评价分和课程教学效果终结性评价分数，然后计算课程小类排名。对于实践教学课程，需要设置实践教学效果评价等级，并计算T3分数。最终，计算学年考核名单中教师的评价等级，并生成免评名单。
 在教学建设和改革业绩方面，我学会了如何进行基础信息的设置和维护，包括负责人分值占比上限和分值/总分录入时间的设置。接着，同步或增加教学建设和改革业绩项目，录入项目业绩总分，并为项目成员分配分值。最后，根据项目业绩总分和项目分配分值计算出参与项目成员的业绩计分和等级。
 对于教学工作业绩的统计，我了解了需要先进行一些基本信息的维护，包括综合评价等级、教学事故类型、行政处分类型以及事故/处分信息的维护，同时设置业绩确认时间。然后，导入参与考核的教师名单信息，最终进行教师工作业绩的统计。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科竞赛管理系统的各个模块内容进行了全面学习，了解了系统的基本信息维护、竞赛报名管理、学生竞赛考试管理、竞赛成绩管理以及竞赛立项管理等方面的操作流程。
+首先，基本信息维护模块包括创建竞赛项目、竞赛场所、竞赛类别、竞赛创办周期和竞赛形式，并将这些状态设置为启用。此外，还包括创建评审模板、设置评审指标以及设置获奖等级并启用这些配置。
+在学科竞赛报名管理模块中，学习了如何进行学科竞赛项目的申报，填写竞赛项目的详细信息、设定竞赛目标、经费预算和组织方案并提交项目申请。管理端审核通过后，可以对竞赛项目的基本信息和成员信息进行管理，并为其选择参与的学生。教师端也可以申请竞赛获奖，并设置相关指导老师和学生信息，管理端对收到的申请进行审核。
+学生竞赛考试管理模块中，为学科竞赛项目安排竞赛地点，确保每个竞赛项目有合适的场所进行。
+学科竞赛成绩管理模块则在录入成绩之前设置成绩录入的前置条件，如成绩录入时间控制和认定赛事库维护。然后选择相应的学科竞赛项目，为每位成员录入成绩并上传相关证书附件，管理员需要审核这些录入的成绩。
+最后，学科竞赛立项管理模块设置学科竞赛立项申请的时间，进行竞赛项目的申报，填写竞赛名称、时间、承办学院等基本信息并设置经费信息。申报成功后，管理端进行审核，并在审核通过后进行专家指派和评审。
+通过这次学习，对学科竞赛管理系统有了更全面的认识，并掌握了各个模块的操作流程和注意事项，为今后在实际工作中的应用打下了基础。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +357,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,17 +1196,25 @@
       <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>45496</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>

--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77140586-F3FE-4422-8AD1-1E6E7F73C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA6703-C583-4E81-A83F-2F5E812C7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>实习日志</t>
   </si>
@@ -240,6 +240,17 @@
 学科竞赛成绩管理模块则在录入成绩之前设置成绩录入的前置条件，如成绩录入时间控制和认定赛事库维护。然后选择相应的学科竞赛项目，为每位成员录入成绩并上传相关证书附件，管理员需要审核这些录入的成绩。
 最后，学科竞赛立项管理模块设置学科竞赛立项申请的时间，进行竞赛项目的申报，填写竞赛名称、时间、承办学院等基本信息并设置经费信息。申报成功后，管理端进行审核，并在审核通过后进行专家指派和评审。
 通过这次学习，对学科竞赛管理系统有了更全面的认识，并掌握了各个模块的操作流程和注意事项，为今后在实际工作中的应用打下了基础。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要学习了教学建设系统中的一些核心模块和流程，主要涉及成果管理、项目管理、专家管理以及经费管理四个方面。在成果管理模块中，主要关注项目获奖、教材信息、论文信息和专利信息的审核和维护。项目获奖部分包括教师竞赛获奖、指导学生参赛获奖以及各种奖励或荣誉称号的审核和查看。教材信息模块则涉及对教材讲义、教材成果、教材编写等各方面的审核和维护。论文信息和专利信息模块则专门针对相关信息的审核流程。
+项目管理模块涵盖了从项目申报、审核到项目结题的整个过程。首先，需要通过项目模板管理和申报项目通知来组织项目申报工作。然后，项目申报审核、项目通知管理、新增通知内容并设置面向项目、项目中检审核、项目结题审核等各个环节依次进行。在项目执行过程中，还包括项目变更审核、项目开题审核、项目信息查询、项目成果管理、项目变更记录查询和项目申报信息查询等具体操作。
+专家管理模块的学习内容主要集中在评审等级维护、专家评审模板、专家评审通知及专家评审的查看和明细查看。通过这一模块，可以系统地组织和管理专家的评审工作，确保评审过程的规范性和透明度。
+最后，经费管理模块则涉及经费的到账、转账和支出情况的查看和查询，同时还包括预算经费的审核和明细查询。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容基本完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,9 +350,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,11 +363,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,341 +898,349 @@
       <c r="A3" s="2">
         <v>45470</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>45471</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>45474</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>45475</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>45476</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>45477</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>45478</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>45481</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>45482</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>45483</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>45484</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>45485</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>45488</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>45489</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="378" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>45490</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>45491</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>45492</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>45495</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>45496</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="405" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>45497</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA6703-C583-4E81-A83F-2F5E812C7D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E5C6F4-F6C6-4FB0-9990-E73F9A7BB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>实习日志</t>
   </si>
@@ -251,6 +251,27 @@
   </si>
   <si>
     <t>内容基本完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要学习了实践教学周管理的相关内容，主要涉及实践任务的类型维护、任务安排申请、任务安排审核、教学任务查询、教师评价、教学报告上传和教学情况统计等环节。
+首先，需要进行实践任务类型的维护，这包括设置类型代码和类型名称，确保每个实践任务都有明确的分类。接着，开始实践任务的安排申请。在申请过程中，需要填写实践任务的名称、执行人、考核方式和学时数，并选择相应的实践任务类型和开始结束时间。随后，为每个实践任务安排指导教师，以确保教学过程的顺利进行。
+完成申请后，进入实践任务安排审核环节，审核通过后，任务安排才能正式生效。审核通过的实践任务可以在实践教学任务查询中进行查看，确保任务的执行情况得到实时跟踪和管理。
+在实践教学过程中，教师需要对教学任务进行评价，提供反馈以提升教学质量。教学结束后，指导教师和参与学生需要上传实践教学报告，总结实践教学的成果和经验。
+最后，对实践教学情况进行统计，统计内容包括参与实践教学的学院、实践任务的数量和实践学时等信息。通过这些数据的统计和分析，可以全面了解实践教学的执行情况，并为后续的教学改进提供依据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了资格证书管理系统的相关内容，包括证书基本信息维护、年度考试计划管理、职业证书考评员管理、职业证书鉴定考试管理、技能证书管理、学生认证培训管理、学生资格证书管理以及资格证书查询等多个方面。
+首先，需要对资格证书的基本信息进行维护。这包括证书类型、发证机关、证书级别、证书等级、证书名称、资格证书和发证机构等信息的管理，以及鉴定地点的设置，确保资格证书的基础数据准确完整。
+接下来是年度考试计划的管理。首先进行年度考试计划的申请，然后经过审核，确定年度考试计划的具体安排。审核通过后，计划正式生效。
+职业证书考评员管理是另一个重要环节。考评员需要先进行申请，申请内容包括考评员的资格和背景信息，审核通过后才能正式成为职业证书的考评员。
+职业证书鉴定考试的管理流程类似，首先进行考试申请，填写考试相关的详细信息，然后进行审核。审核通过后，鉴定考试才能正式进行。
+技能证书的管理也非常关键，包括对技能证书的基本信息进行维护，以及专业技能证书的对照和技能证书成绩的查询。通过这些步骤，可以确保技能证书的信息准确，并及时更新相关数据。
+学生认证培训管理涉及对参加认证培训的学生名单进行管理，确保每个参加培训的学生信息准确无误。
+学生资格证书管理则包括对学生资格证书等级的管理和学生资格证书的审核。审核通过后，学生才能正式获得资格证书。
+最后，通过资格证书查询功能，可以对学生认证培训、学生资格证书和资格证书的统计分析进行查询，确保所有相关数据都能及时查询和统计分析，为决策提供支持。
+整个流程从基础信息的维护、年度考试计划的申请和审核、职业证书</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1242,6 +1263,38 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
+    <row r="23" spans="1:6" ht="378" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>45498</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/实习日志_v1.xlsx
+++ b/实习日志_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E5C6F4-F6C6-4FB0-9990-E73F9A7BB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA845B-BECD-43A3-B335-957B7CC0A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>60</v>
